--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori2/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori2/42/word_level_predictions_42.xlsx
@@ -13034,418 +13034,418 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="2" t="n">
+      <c r="A243" t="n">
         <v>19</v>
       </c>
-      <c r="B243" s="2" t="inlineStr">
+      <c r="B243" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C243" s="2" t="inlineStr">
+      <c r="C243" t="inlineStr">
         <is>
           <t>Failed</t>
         </is>
       </c>
-      <c r="D243" s="2" t="n">
+      <c r="D243" t="n">
         <v>0</v>
       </c>
-      <c r="E243" s="2" t="inlineStr">
+      <c r="E243" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F243" s="2" t="inlineStr">
+      <c r="F243" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G243" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H243" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I243" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J243" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K243" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L243" s="2" t="inlineStr">
+      <c r="G243" t="b">
+        <v>1</v>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I243" t="b">
+        <v>1</v>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K243" t="b">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="2" t="n">
+      <c r="A244" t="n">
         <v>19</v>
       </c>
-      <c r="B244" s="2" t="inlineStr">
+      <c r="B244" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C244" s="2" t="inlineStr">
+      <c r="C244" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D244" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E244" s="2" t="inlineStr">
+      <c r="D244" t="n">
+        <v>1</v>
+      </c>
+      <c r="E244" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F244" s="2" t="inlineStr">
+      <c r="F244" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G244" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H244" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I244" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J244" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K244" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L244" s="2" t="inlineStr">
+      <c r="G244" t="b">
+        <v>1</v>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I244" t="b">
+        <v>1</v>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K244" t="b">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="2" t="n">
+      <c r="A245" t="n">
         <v>19</v>
       </c>
-      <c r="B245" s="2" t="inlineStr">
+      <c r="B245" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C245" s="2" t="inlineStr">
+      <c r="C245" t="inlineStr">
         <is>
           <t>lower</t>
         </is>
       </c>
-      <c r="D245" s="2" t="n">
+      <c r="D245" t="n">
         <v>2</v>
       </c>
-      <c r="E245" s="2" t="inlineStr">
+      <c r="E245" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F245" s="2" t="inlineStr">
+      <c r="F245" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G245" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H245" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I245" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J245" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K245" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L245" s="2" t="inlineStr">
+      <c r="G245" t="b">
+        <v>1</v>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I245" t="b">
+        <v>1</v>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K245" t="b">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="2" t="n">
+      <c r="A246" t="n">
         <v>19</v>
       </c>
-      <c r="B246" s="2" t="inlineStr">
+      <c r="B246" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C246" s="2" t="inlineStr">
+      <c r="C246" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D246" s="2" t="n">
+      <c r="D246" t="n">
         <v>3</v>
       </c>
-      <c r="E246" s="2" t="inlineStr">
+      <c r="E246" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F246" s="2" t="inlineStr">
+      <c r="F246" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G246" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H246" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I246" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J246" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K246" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L246" s="2" t="inlineStr">
+      <c r="G246" t="b">
+        <v>1</v>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I246" t="b">
+        <v>1</v>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K246" t="b">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="2" t="n">
+      <c r="A247" t="n">
         <v>19</v>
       </c>
-      <c r="B247" s="2" t="inlineStr">
+      <c r="B247" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C247" s="2" t="inlineStr">
+      <c r="C247" t="inlineStr">
         <is>
           <t>pack</t>
         </is>
       </c>
-      <c r="D247" s="2" t="n">
+      <c r="D247" t="n">
         <v>4</v>
       </c>
-      <c r="E247" s="2" t="inlineStr">
+      <c r="E247" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F247" s="2" t="inlineStr">
+      <c r="F247" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G247" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H247" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I247" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J247" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K247" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L247" s="2" t="inlineStr">
+      <c r="G247" t="b">
+        <v>1</v>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I247" t="b">
+        <v>1</v>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K247" t="b">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="2" t="n">
+      <c r="A248" t="n">
         <v>19</v>
       </c>
-      <c r="B248" s="2" t="inlineStr">
+      <c r="B248" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C248" s="2" t="inlineStr">
+      <c r="C248" t="inlineStr">
         <is>
           <t>up</t>
         </is>
       </c>
-      <c r="D248" s="2" t="n">
+      <c r="D248" t="n">
         <v>5</v>
       </c>
-      <c r="E248" s="2" t="inlineStr">
+      <c r="E248" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F248" s="2" t="inlineStr">
+      <c r="F248" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G248" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I248" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J248" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K248" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L248" s="2" t="inlineStr">
+      <c r="G248" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I248" t="b">
+        <v>1</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K248" t="b">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="2" t="n">
+      <c r="A249" t="n">
         <v>19</v>
       </c>
-      <c r="B249" s="2" t="inlineStr">
+      <c r="B249" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C249" s="2" t="inlineStr">
+      <c r="C249" t="inlineStr">
         <is>
           <t>landing</t>
         </is>
       </c>
-      <c r="D249" s="2" t="n">
+      <c r="D249" t="n">
         <v>6</v>
       </c>
-      <c r="E249" s="2" t="inlineStr">
+      <c r="E249" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F249" s="2" t="inlineStr">
+      <c r="F249" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G249" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I249" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J249" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K249" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L249" s="2" t="inlineStr">
+      <c r="G249" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I249" t="b">
+        <v>1</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K249" t="b">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="2" t="n">
+      <c r="A250" t="n">
         <v>19</v>
       </c>
-      <c r="B250" s="2" t="inlineStr">
+      <c r="B250" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C250" s="2" t="inlineStr">
+      <c r="C250" t="inlineStr">
         <is>
           <t>gear</t>
         </is>
       </c>
-      <c r="D250" s="2" t="n">
+      <c r="D250" t="n">
         <v>7</v>
       </c>
-      <c r="E250" s="2" t="inlineStr">
+      <c r="E250" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F250" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G250" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I250" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J250" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K250" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L250" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G250" t="b">
+        <v>1</v>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I250" t="b">
+        <v>1</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K250" t="b">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17593,11 +17593,11 @@
         </is>
       </c>
       <c r="I330" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J330" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K330" s="2" t="b">
@@ -17645,11 +17645,11 @@
         </is>
       </c>
       <c r="I331" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J331" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K331" s="2" t="b">
@@ -17685,7 +17685,7 @@
       </c>
       <c r="F332" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G332" s="2" t="b">
@@ -17697,11 +17697,11 @@
         </is>
       </c>
       <c r="I332" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J332" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K332" s="2" t="b">
@@ -17709,7 +17709,7 @@
       </c>
       <c r="L332" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17749,11 +17749,11 @@
         </is>
       </c>
       <c r="I333" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J333" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K333" s="2" t="b">
@@ -24237,7 +24237,7 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G458" t="b">
@@ -24261,57 +24261,57 @@
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" t="n">
+      <c r="A459" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B459" t="inlineStr">
+      <c r="B459" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C459" t="inlineStr">
+      <c r="C459" s="2" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D459" t="n">
+      <c r="D459" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E459" t="inlineStr">
+      <c r="E459" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F459" t="inlineStr">
+      <c r="F459" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G459" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" t="b">
-        <v>1</v>
-      </c>
-      <c r="J459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K459" t="b">
-        <v>1</v>
-      </c>
-      <c r="L459" t="inlineStr">
+      <c r="G459" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J459" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K459" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L459" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -24445,7 +24445,7 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G462" t="b">
@@ -24469,57 +24469,57 @@
       </c>
       <c r="L462" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="463">
-      <c r="A463" t="n">
+      <c r="A463" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B463" t="inlineStr">
+      <c r="B463" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected . Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C463" t="inlineStr">
+      <c r="C463" s="2" t="inlineStr">
         <is>
           <t>Detected</t>
         </is>
       </c>
-      <c r="D463" t="n">
+      <c r="D463" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E463" t="inlineStr">
+      <c r="E463" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F463" t="inlineStr">
+      <c r="F463" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G463" t="b">
-        <v>1</v>
-      </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I463" t="b">
-        <v>1</v>
-      </c>
-      <c r="J463" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K463" t="b">
-        <v>1</v>
-      </c>
-      <c r="L463" t="inlineStr">
+      <c r="G463" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H463" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I463" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J463" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K463" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L463" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -25017,7 +25017,7 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G473" t="b">
@@ -25041,57 +25041,57 @@
       </c>
       <c r="L473" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="474">
-      <c r="A474" t="n">
+      <c r="A474" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="B474" t="inlineStr">
+      <c r="B474" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Now . Fly with caution .</t>
         </is>
       </c>
-      <c r="C474" t="inlineStr">
+      <c r="C474" s="2" t="inlineStr">
         <is>
           <t>Now</t>
         </is>
       </c>
-      <c r="D474" t="n">
+      <c r="D474" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E474" t="inlineStr">
+      <c r="E474" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F474" t="inlineStr">
+      <c r="F474" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G474" t="b">
-        <v>1</v>
-      </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I474" t="b">
-        <v>1</v>
-      </c>
-      <c r="J474" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K474" t="b">
-        <v>1</v>
-      </c>
-      <c r="L474" t="inlineStr">
+      <c r="G474" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H474" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I474" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J474" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K474" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L474" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -25485,7 +25485,7 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G482" t="b">
@@ -25509,7 +25509,7 @@
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>False_I-Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori2/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_original/ori2/42/word_level_predictions_42.xlsx
@@ -13034,418 +13034,418 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="n">
+      <c r="A243" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B243" t="inlineStr">
+      <c r="B243" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr">
+      <c r="C243" s="2" t="inlineStr">
         <is>
           <t>Failed</t>
         </is>
       </c>
-      <c r="D243" t="n">
-        <v>0</v>
-      </c>
-      <c r="E243" t="inlineStr">
+      <c r="D243" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E243" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr">
+      <c r="F243" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G243" t="b">
-        <v>1</v>
-      </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I243" t="b">
-        <v>1</v>
-      </c>
-      <c r="J243" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K243" t="b">
-        <v>1</v>
-      </c>
-      <c r="L243" t="inlineStr">
+      <c r="G243" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H243" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I243" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J243" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K243" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L243" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="n">
+      <c r="A244" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B244" t="inlineStr">
+      <c r="B244" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C244" t="inlineStr">
+      <c r="C244" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D244" t="n">
-        <v>1</v>
-      </c>
-      <c r="E244" t="inlineStr">
+      <c r="D244" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E244" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr">
+      <c r="F244" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G244" t="b">
-        <v>1</v>
-      </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I244" t="b">
-        <v>1</v>
-      </c>
-      <c r="J244" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K244" t="b">
-        <v>1</v>
-      </c>
-      <c r="L244" t="inlineStr">
+      <c r="G244" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H244" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I244" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J244" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K244" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L244" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="n">
+      <c r="A245" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B245" t="inlineStr">
+      <c r="B245" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C245" t="inlineStr">
+      <c r="C245" s="2" t="inlineStr">
         <is>
           <t>lower</t>
         </is>
       </c>
-      <c r="D245" t="n">
+      <c r="D245" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E245" t="inlineStr">
+      <c r="E245" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
+      <c r="F245" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G245" t="b">
-        <v>1</v>
-      </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I245" t="b">
-        <v>1</v>
-      </c>
-      <c r="J245" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K245" t="b">
-        <v>1</v>
-      </c>
-      <c r="L245" t="inlineStr">
+      <c r="G245" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H245" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I245" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J245" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K245" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L245" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="n">
+      <c r="A246" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B246" t="inlineStr">
+      <c r="B246" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C246" t="inlineStr">
+      <c r="C246" s="2" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D246" t="n">
+      <c r="D246" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E246" t="inlineStr">
+      <c r="E246" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr">
+      <c r="F246" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G246" t="b">
-        <v>1</v>
-      </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I246" t="b">
-        <v>1</v>
-      </c>
-      <c r="J246" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K246" t="b">
-        <v>1</v>
-      </c>
-      <c r="L246" t="inlineStr">
+      <c r="G246" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H246" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I246" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J246" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K246" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L246" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="n">
+      <c r="A247" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B247" t="inlineStr">
+      <c r="B247" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C247" t="inlineStr">
+      <c r="C247" s="2" t="inlineStr">
         <is>
           <t>pack</t>
         </is>
       </c>
-      <c r="D247" t="n">
+      <c r="D247" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E247" t="inlineStr">
+      <c r="E247" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
+      <c r="F247" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G247" t="b">
-        <v>1</v>
-      </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I247" t="b">
-        <v>1</v>
-      </c>
-      <c r="J247" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K247" t="b">
-        <v>1</v>
-      </c>
-      <c r="L247" t="inlineStr">
+      <c r="G247" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H247" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I247" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J247" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K247" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L247" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="n">
+      <c r="A248" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B248" t="inlineStr">
+      <c r="B248" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
+      <c r="C248" s="2" t="inlineStr">
         <is>
           <t>up</t>
         </is>
       </c>
-      <c r="D248" t="n">
+      <c r="D248" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E248" t="inlineStr">
+      <c r="E248" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
+      <c r="F248" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G248" t="b">
-        <v>1</v>
-      </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I248" t="b">
-        <v>1</v>
-      </c>
-      <c r="J248" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K248" t="b">
-        <v>1</v>
-      </c>
-      <c r="L248" t="inlineStr">
+      <c r="G248" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H248" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I248" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J248" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K248" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L248" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="n">
+      <c r="A249" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B249" t="inlineStr">
+      <c r="B249" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr">
+      <c r="C249" s="2" t="inlineStr">
         <is>
           <t>landing</t>
         </is>
       </c>
-      <c r="D249" t="n">
+      <c r="D249" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E249" t="inlineStr">
+      <c r="E249" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F249" t="inlineStr">
+      <c r="F249" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G249" t="b">
-        <v>1</v>
-      </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I249" t="b">
-        <v>1</v>
-      </c>
-      <c r="J249" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K249" t="b">
-        <v>1</v>
-      </c>
-      <c r="L249" t="inlineStr">
+      <c r="G249" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H249" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I249" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J249" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K249" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L249" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="n">
+      <c r="A250" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B250" t="inlineStr">
+      <c r="B250" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C250" t="inlineStr">
+      <c r="C250" s="2" t="inlineStr">
         <is>
           <t>gear</t>
         </is>
       </c>
-      <c r="D250" t="n">
+      <c r="D250" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E250" t="inlineStr">
+      <c r="E250" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G250" t="b">
-        <v>1</v>
-      </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I250" t="b">
-        <v>1</v>
-      </c>
-      <c r="J250" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K250" t="b">
-        <v>1</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F250" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G250" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H250" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I250" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J250" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K250" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L250" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -17593,11 +17593,11 @@
         </is>
       </c>
       <c r="I330" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J330" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K330" s="2" t="b">
@@ -17645,11 +17645,11 @@
         </is>
       </c>
       <c r="I331" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J331" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K331" s="2" t="b">
@@ -17685,7 +17685,7 @@
       </c>
       <c r="F332" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G332" s="2" t="b">
@@ -17697,11 +17697,11 @@
         </is>
       </c>
       <c r="I332" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J332" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K332" s="2" t="b">
@@ -17709,7 +17709,7 @@
       </c>
       <c r="L332" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -17749,11 +17749,11 @@
         </is>
       </c>
       <c r="I333" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J333" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K333" s="2" t="b">
@@ -24237,81 +24237,81 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G458" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I458" t="b">
+        <v>1</v>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K458" t="b">
+        <v>1</v>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>37</v>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>video</t>
+        </is>
+      </c>
+      <c r="D459" t="n">
+        <v>14</v>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G458" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I458" t="b">
-        <v>1</v>
-      </c>
-      <c r="J458" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K458" t="b">
-        <v>1</v>
-      </c>
-      <c r="L458" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B459" s="2" t="inlineStr">
-        <is>
-          <t>SD card write speed is too slow . Not suitable for shooting a 4K video .</t>
-        </is>
-      </c>
-      <c r="C459" s="2" t="inlineStr">
-        <is>
-          <t>video</t>
-        </is>
-      </c>
-      <c r="D459" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="E459" s="2" t="inlineStr">
+      <c r="F459" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F459" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G459" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J459" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K459" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L459" s="2" t="inlineStr">
+      <c r="G459" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" t="b">
+        <v>1</v>
+      </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K459" t="b">
+        <v>1</v>
+      </c>
+      <c r="L459" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -24445,81 +24445,81 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G462" t="b">
+        <v>1</v>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I462" t="b">
+        <v>1</v>
+      </c>
+      <c r="J462" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K462" t="b">
+        <v>1</v>
+      </c>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>38</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Strong Interference Detected . Be careful when flying long distances .</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>Detected</t>
+        </is>
+      </c>
+      <c r="D463" t="n">
+        <v>2</v>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G462" t="b">
-        <v>1</v>
-      </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I462" t="b">
-        <v>1</v>
-      </c>
-      <c r="J462" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K462" t="b">
-        <v>1</v>
-      </c>
-      <c r="L462" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B463" s="2" t="inlineStr">
-        <is>
-          <t>Strong Interference Detected . Be careful when flying long distances .</t>
-        </is>
-      </c>
-      <c r="C463" s="2" t="inlineStr">
-        <is>
-          <t>Detected</t>
-        </is>
-      </c>
-      <c r="D463" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E463" s="2" t="inlineStr">
+      <c r="F463" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F463" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G463" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H463" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I463" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J463" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K463" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L463" s="2" t="inlineStr">
+      <c r="G463" t="b">
+        <v>1</v>
+      </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I463" t="b">
+        <v>1</v>
+      </c>
+      <c r="J463" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K463" t="b">
+        <v>1</v>
+      </c>
+      <c r="L463" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -25017,81 +25017,81 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G473" t="b">
+        <v>1</v>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I473" t="b">
+        <v>1</v>
+      </c>
+      <c r="J473" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K473" t="b">
+        <v>1</v>
+      </c>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>39</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Strong Interference Now . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Now</t>
+        </is>
+      </c>
+      <c r="D474" t="n">
+        <v>2</v>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G473" t="b">
-        <v>1</v>
-      </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I473" t="b">
-        <v>1</v>
-      </c>
-      <c r="J473" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K473" t="b">
-        <v>1</v>
-      </c>
-      <c r="L473" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B474" s="2" t="inlineStr">
-        <is>
-          <t>Strong Interference Now . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C474" s="2" t="inlineStr">
-        <is>
-          <t>Now</t>
-        </is>
-      </c>
-      <c r="D474" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E474" s="2" t="inlineStr">
+      <c r="F474" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F474" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G474" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H474" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I474" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J474" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K474" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L474" s="2" t="inlineStr">
+      <c r="G474" t="b">
+        <v>1</v>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I474" t="b">
+        <v>1</v>
+      </c>
+      <c r="J474" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K474" t="b">
+        <v>1</v>
+      </c>
+      <c r="L474" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -25485,7 +25485,7 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G482" t="b">
@@ -25509,7 +25509,7 @@
       </c>
       <c r="L482" t="inlineStr">
         <is>
-          <t>False_I-Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
